--- a/field_status.xlsx
+++ b/field_status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
   <si>
     <t>Table 1</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Barbara dwarf</t>
+  </si>
+  <si>
+    <t>not all data reduced yet</t>
   </si>
   <si>
     <t>S1348+3622</t>
@@ -1693,7 +1696,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2002,6 +2005,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -7553,7 +7559,9 @@
         <v>211226009</v>
       </c>
       <c r="M83" s="97"/>
-      <c r="N83" s="97"/>
+      <c r="N83" t="s" s="103">
+        <v>166</v>
+      </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97"/>
       <c r="Q83" s="97"/>
@@ -7564,7 +7572,7 @@
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="87">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s" s="88">
         <v>61</v>
@@ -7605,7 +7613,7 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="87">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s" s="88">
         <v>61</v>
@@ -7614,7 +7622,7 @@
         <v>33</v>
       </c>
       <c r="D85" t="s" s="81">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s" s="81">
         <v>33</v>
@@ -7646,7 +7654,7 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="87">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s" s="88">
         <v>61</v>
@@ -7687,7 +7695,7 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="87">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s" s="88">
         <v>61</v>
@@ -7696,7 +7704,7 @@
         <v>33</v>
       </c>
       <c r="D87" t="s" s="81">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E87" t="s" s="81">
         <v>33</v>
@@ -7728,7 +7736,7 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="87">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s" s="88">
         <v>61</v>
@@ -7737,7 +7745,7 @@
         <v>33</v>
       </c>
       <c r="D88" t="s" s="81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s" s="81">
         <v>33</v>
@@ -7752,7 +7760,7 @@
         <v>72</v>
       </c>
       <c r="I88" t="s" s="80">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J88" s="89">
         <v>191024043</v>
@@ -7771,7 +7779,7 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="87">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s" s="88">
         <v>61</v>
@@ -7812,7 +7820,7 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="87">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s" s="88">
         <v>61</v>
@@ -7836,7 +7844,7 @@
         <v>35</v>
       </c>
       <c r="I90" t="s" s="80">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J90" s="89">
         <v>200104010</v>
@@ -7857,7 +7865,7 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s" s="88">
         <v>61</v>
@@ -7898,7 +7906,7 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s" s="88">
         <v>61</v>
@@ -7916,7 +7924,7 @@
         <v>61</v>
       </c>
       <c r="G92" t="s" s="86">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H92" t="s" s="76">
         <v>72</v>
@@ -7939,7 +7947,7 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="87">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s" s="88">
         <v>61</v>
@@ -7980,7 +7988,7 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="87">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s" s="88">
         <v>61</v>
@@ -8021,7 +8029,7 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="87">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B95" t="s" s="88">
         <v>61</v>
@@ -8062,7 +8070,7 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s" s="88">
         <v>61</v>
@@ -8103,7 +8111,7 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s" s="88">
         <v>61</v>
@@ -8144,7 +8152,7 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="87">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B98" t="s" s="88">
         <v>61</v>
@@ -8162,7 +8170,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s" s="86">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H98" t="s" s="76">
         <v>72</v>
@@ -8185,7 +8193,7 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="87">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s" s="88">
         <v>33</v>
@@ -8217,7 +8225,7 @@
       </c>
       <c r="L99" s="90"/>
       <c r="M99" t="s" s="81">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N99" s="90"/>
       <c r="O99" s="90"/>
@@ -8230,7 +8238,7 @@
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="87">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s" s="88">
         <v>33</v>
@@ -8273,7 +8281,7 @@
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="87">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s" s="88">
         <v>61</v>
@@ -8288,9 +8296,9 @@
         <v>33</v>
       </c>
       <c r="F101" t="s" s="81">
-        <v>192</v>
-      </c>
-      <c r="G101" s="103"/>
+        <v>193</v>
+      </c>
+      <c r="G101" s="104"/>
       <c r="H101" s="82"/>
       <c r="I101" s="82"/>
       <c r="J101" s="89">
@@ -8310,7 +8318,7 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="87">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s" s="88">
         <v>61</v>
@@ -8353,7 +8361,7 @@
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="87">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s" s="88">
         <v>33</v>
@@ -8377,7 +8385,7 @@
         <v>72</v>
       </c>
       <c r="I103" t="s" s="80">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J103" s="89">
         <v>201230021</v>
@@ -8398,7 +8406,7 @@
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="87">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s" s="88">
         <v>61</v>
@@ -8439,7 +8447,7 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="87">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s" s="88">
         <v>61</v>
@@ -8454,7 +8462,7 @@
         <v>33</v>
       </c>
       <c r="F105" t="s" s="61">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G105" t="s" s="86">
         <v>38</v>
@@ -8480,7 +8488,7 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="87">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B106" t="s" s="88">
         <v>61</v>
@@ -8521,7 +8529,7 @@
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="87">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B107" t="s" s="88">
         <v>61</v>
@@ -8562,7 +8570,7 @@
     </row>
     <row r="108" ht="20.05" customHeight="1">
       <c r="A108" t="s" s="87">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B108" t="s" s="88">
         <v>61</v>
@@ -8586,7 +8594,7 @@
         <v>35</v>
       </c>
       <c r="I108" t="s" s="80">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J108" s="89">
         <v>200327060</v>
@@ -8605,13 +8613,13 @@
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="87">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B109" t="s" s="88">
         <v>61</v>
       </c>
       <c r="C109" t="s" s="81">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s" s="81">
         <v>33</v>
@@ -8629,7 +8637,7 @@
         <v>35</v>
       </c>
       <c r="I109" t="s" s="80">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J109" s="89">
         <v>201010041</v>
@@ -8648,7 +8656,7 @@
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" t="s" s="87">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B110" t="s" s="88">
         <v>61</v>
@@ -8689,13 +8697,13 @@
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="87">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B111" t="s" s="88">
         <v>61</v>
       </c>
       <c r="C111" t="s" s="81">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s" s="81">
         <v>62</v>
@@ -8730,7 +8738,7 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="87">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B112" t="s" s="88">
         <v>61</v>
@@ -8748,7 +8756,7 @@
         <v>33</v>
       </c>
       <c r="G112" t="s" s="86">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H112" t="s" s="80">
         <v>35</v>
@@ -8771,7 +8779,7 @@
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="87">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B113" t="s" s="88">
         <v>61</v>
@@ -8812,7 +8820,7 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="87">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s" s="88">
         <v>61</v>
@@ -8853,7 +8861,7 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="87">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s" s="88">
         <v>61</v>
@@ -8894,7 +8902,7 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="63">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s" s="64">
         <v>33</v>
@@ -8903,7 +8911,7 @@
         <v>33</v>
       </c>
       <c r="D116" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
@@ -8927,16 +8935,16 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="63">
+        <v>217</v>
+      </c>
+      <c r="B117" t="s" s="64">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s" s="65">
         <v>216</v>
-      </c>
-      <c r="B117" t="s" s="64">
-        <v>33</v>
-      </c>
-      <c r="C117" t="s" s="65">
-        <v>33</v>
-      </c>
-      <c r="D117" t="s" s="65">
-        <v>215</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
@@ -8960,7 +8968,7 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="63">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s" s="64">
         <v>33</v>
@@ -8969,7 +8977,7 @@
         <v>33</v>
       </c>
       <c r="D118" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
@@ -8993,7 +9001,7 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B119" t="s" s="64">
         <v>61</v>
@@ -9002,7 +9010,7 @@
         <v>33</v>
       </c>
       <c r="D119" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
@@ -9026,7 +9034,7 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B120" t="s" s="64">
         <v>33</v>
@@ -9035,7 +9043,7 @@
         <v>33</v>
       </c>
       <c r="D120" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
@@ -9059,7 +9067,7 @@
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" t="s" s="63">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B121" t="s" s="64">
         <v>61</v>
@@ -9068,7 +9076,7 @@
         <v>33</v>
       </c>
       <c r="D121" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
@@ -9092,7 +9100,7 @@
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="63">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B122" t="s" s="64">
         <v>61</v>
@@ -9101,7 +9109,7 @@
         <v>33</v>
       </c>
       <c r="D122" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
@@ -9125,7 +9133,7 @@
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" t="s" s="63">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B123" t="s" s="64">
         <v>61</v>
@@ -9134,7 +9142,7 @@
         <v>33</v>
       </c>
       <c r="D123" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
@@ -9158,7 +9166,7 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="63">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B124" t="s" s="64">
         <v>61</v>
@@ -9167,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="D124" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
@@ -9191,7 +9199,7 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="63">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s" s="64">
         <v>61</v>
@@ -9200,7 +9208,7 @@
         <v>33</v>
       </c>
       <c r="D125" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
@@ -9224,7 +9232,7 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="63">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B126" t="s" s="64">
         <v>61</v>
@@ -9233,7 +9241,7 @@
         <v>33</v>
       </c>
       <c r="D126" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
@@ -9257,7 +9265,7 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="63">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s" s="64">
         <v>61</v>
@@ -9266,9 +9274,11 @@
         <v>33</v>
       </c>
       <c r="D127" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E127" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E127" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F127" s="25"/>
       <c r="G127" s="71"/>
       <c r="H127" s="68"/>
@@ -9290,7 +9300,7 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="63">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B128" t="s" s="64">
         <v>61</v>
@@ -9299,9 +9309,11 @@
         <v>33</v>
       </c>
       <c r="D128" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E128" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E128" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F128" s="25"/>
       <c r="G128" s="71"/>
       <c r="H128" s="68"/>
@@ -9323,7 +9335,7 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="63">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s" s="64">
         <v>61</v>
@@ -9332,9 +9344,11 @@
         <v>33</v>
       </c>
       <c r="D129" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E129" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E129" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F129" s="25"/>
       <c r="G129" s="71"/>
       <c r="H129" s="68"/>
@@ -9356,7 +9370,7 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="63">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s" s="64">
         <v>61</v>
@@ -9365,9 +9379,11 @@
         <v>33</v>
       </c>
       <c r="D130" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E130" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E130" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F130" s="25"/>
       <c r="G130" s="71"/>
       <c r="H130" s="68"/>
@@ -9389,7 +9405,7 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="63">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s" s="64">
         <v>61</v>
@@ -9398,7 +9414,7 @@
         <v>33</v>
       </c>
       <c r="D131" t="s" s="65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
@@ -9409,7 +9425,7 @@
         <v>200806041</v>
       </c>
       <c r="K131" t="s" s="65">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L131" s="25"/>
       <c r="M131" s="25"/>
@@ -9424,7 +9440,7 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="63">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s" s="64">
         <v>61</v>
@@ -9433,9 +9449,11 @@
         <v>33</v>
       </c>
       <c r="D132" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E132" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E132" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F132" s="25"/>
       <c r="G132" s="71"/>
       <c r="H132" s="68"/>
@@ -9457,7 +9475,7 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="63">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s" s="64">
         <v>61</v>
@@ -9466,9 +9484,11 @@
         <v>33</v>
       </c>
       <c r="D133" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E133" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E133" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F133" s="25"/>
       <c r="G133" s="71"/>
       <c r="H133" s="68"/>
@@ -9490,7 +9510,7 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="63">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B134" t="s" s="64">
         <v>61</v>
@@ -9499,9 +9519,11 @@
         <v>33</v>
       </c>
       <c r="D134" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E134" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E134" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F134" s="25"/>
       <c r="G134" s="71"/>
       <c r="H134" s="68"/>
@@ -9523,7 +9545,7 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="63">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B135" t="s" s="64">
         <v>61</v>
@@ -9532,9 +9554,11 @@
         <v>33</v>
       </c>
       <c r="D135" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E135" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E135" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F135" s="25"/>
       <c r="G135" s="71"/>
       <c r="H135" s="68"/>
@@ -9556,7 +9580,7 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="63">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B136" t="s" s="64">
         <v>61</v>
@@ -9565,9 +9589,11 @@
         <v>33</v>
       </c>
       <c r="D136" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E136" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E136" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F136" s="25"/>
       <c r="G136" s="71"/>
       <c r="H136" s="68"/>
@@ -9589,7 +9615,7 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="63">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B137" t="s" s="64">
         <v>61</v>
@@ -9598,9 +9624,11 @@
         <v>33</v>
       </c>
       <c r="D137" t="s" s="65">
-        <v>215</v>
-      </c>
-      <c r="E137" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E137" t="s" s="65">
+        <v>216</v>
+      </c>
       <c r="F137" s="25"/>
       <c r="G137" s="71"/>
       <c r="H137" s="68"/>
@@ -9622,7 +9650,7 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="63">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B138" t="s" s="64">
         <v>33</v>
@@ -9631,7 +9659,7 @@
         <v>33</v>
       </c>
       <c r="D138" t="s" s="65">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
@@ -9655,7 +9683,7 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="63">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B139" t="s" s="64">
         <v>33</v>
@@ -9690,7 +9718,7 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="63">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" t="s" s="64">
         <v>33</v>
@@ -9725,7 +9753,7 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="63">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B141" t="s" s="64">
         <v>61</v>
@@ -9734,7 +9762,7 @@
         <v>33</v>
       </c>
       <c r="D141" t="s" s="65">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
@@ -9760,7 +9788,7 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="63">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s" s="64">
         <v>61</v>
@@ -9776,7 +9804,7 @@
       <c r="G142" s="71"/>
       <c r="H142" s="68"/>
       <c r="I142" t="s" s="67">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J142" s="69">
         <v>200913041</v>
@@ -9795,19 +9823,19 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="63">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B143" t="s" s="64">
         <v>61</v>
       </c>
       <c r="C143" t="s" s="65">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D143" t="s" s="65">
         <v>61</v>
       </c>
       <c r="E143" t="s" s="65">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F143" t="s" s="65">
         <v>33</v>
@@ -9836,7 +9864,7 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="63">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s" s="64">
         <v>33</v>
@@ -9851,7 +9879,7 @@
         <v>33</v>
       </c>
       <c r="F144" t="s" s="65">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G144" s="71"/>
       <c r="H144" s="68"/>
@@ -9875,7 +9903,7 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="63">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B145" t="s" s="64">
         <v>61</v>
@@ -9884,14 +9912,14 @@
         <v>33</v>
       </c>
       <c r="D145" t="s" s="65">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
       <c r="G145" s="71"/>
       <c r="H145" s="68"/>
       <c r="I145" t="s" s="67">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J145" s="69">
         <v>200315026</v>
@@ -9930,7 +9958,7 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="63">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s" s="64">
         <v>33</v>
@@ -9965,7 +9993,7 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="63">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s" s="64">
         <v>33</v>
@@ -10006,7 +10034,7 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="63">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s" s="64">
         <v>33</v>
@@ -10041,7 +10069,7 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="63">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B149" t="s" s="64">
         <v>61</v>
@@ -10074,7 +10102,7 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="63">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s" s="64">
         <v>33</v>
@@ -10109,7 +10137,7 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="63">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B151" t="s" s="64">
         <v>33</v>
@@ -10124,10 +10152,10 @@
       <c r="F151" s="25"/>
       <c r="G151" s="71"/>
       <c r="H151" t="s" s="67">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I151" t="s" s="67">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J151" s="69">
         <v>191121046</v>
@@ -10148,7 +10176,7 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="63">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s" s="64">
         <v>61</v>
@@ -10181,7 +10209,7 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="63">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s" s="64">
         <v>61</v>
@@ -10215,8 +10243,8 @@
       <c r="U153" s="25"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="104">
-        <v>263</v>
+      <c r="A154" t="s" s="105">
+        <v>264</v>
       </c>
       <c r="B154" t="s" s="64">
         <v>33</v>
@@ -10236,9 +10264,11 @@
       <c r="G154" t="s" s="66">
         <v>38</v>
       </c>
-      <c r="H154" s="68"/>
+      <c r="H154" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I154" t="s" s="67">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J154" s="72">
         <v>191125047</v>
@@ -10259,7 +10289,7 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="63">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B155" t="s" s="64">
         <v>61</v>
@@ -10292,7 +10322,7 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="63">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B156" t="s" s="64">
         <v>61</v>
@@ -10325,7 +10355,7 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="63">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B157" t="s" s="64">
         <v>61</v>
@@ -10358,7 +10388,7 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="63">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B158" t="s" s="64">
         <v>61</v>
@@ -10391,7 +10421,7 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="63">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B159" t="s" s="64">
         <v>61</v>
@@ -10424,7 +10454,7 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="63">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s" s="64">
         <v>33</v>
@@ -10457,7 +10487,7 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="63">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s" s="64">
         <v>61</v>
@@ -10490,7 +10520,7 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="63">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s" s="64">
         <v>61</v>
@@ -10523,7 +10553,7 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="63">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B163" t="s" s="64">
         <v>33</v>
@@ -10532,7 +10562,7 @@
         <v>33</v>
       </c>
       <c r="D163" t="s" s="65">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
@@ -10556,7 +10586,7 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="63">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B164" t="s" s="64">
         <v>61</v>
@@ -10589,7 +10619,7 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="63">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B165" t="s" s="64">
         <v>61</v>
@@ -10622,7 +10652,7 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="63">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B166" t="s" s="64">
         <v>61</v>
@@ -10655,7 +10685,7 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="63">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s" s="64">
         <v>61</v>
@@ -10688,7 +10718,7 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="63">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B168" t="s" s="64">
         <v>61</v>
@@ -10721,7 +10751,7 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="63">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B169" t="s" s="64">
         <v>61</v>
@@ -10754,7 +10784,7 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="63">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B170" t="s" s="64">
         <v>33</v>
@@ -10787,7 +10817,7 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="63">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B171" t="s" s="64">
         <v>33</v>
@@ -10820,7 +10850,7 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="63">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B172" t="s" s="64">
         <v>61</v>
@@ -10853,7 +10883,7 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="63">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B173" t="s" s="64">
         <v>61</v>
@@ -10886,7 +10916,7 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="63">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B174" t="s" s="64">
         <v>61</v>
@@ -10919,7 +10949,7 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="63">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B175" t="s" s="64">
         <v>61</v>
@@ -10952,7 +10982,7 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="63">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B176" t="s" s="64">
         <v>61</v>
@@ -10985,7 +11015,7 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="63">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B177" t="s" s="64">
         <v>61</v>
@@ -11018,7 +11048,7 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="63">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B178" t="s" s="64">
         <v>61</v>
@@ -11051,7 +11081,7 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="63">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B179" t="s" s="64">
         <v>61</v>
@@ -11084,7 +11114,7 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="63">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B180" t="s" s="64">
         <v>61</v>
@@ -11117,7 +11147,7 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="63">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B181" t="s" s="64">
         <v>61</v>
@@ -11133,7 +11163,7 @@
       <c r="G181" s="71"/>
       <c r="H181" s="68"/>
       <c r="I181" t="s" s="67">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J181" s="69">
         <v>201126041</v>
@@ -11152,7 +11182,7 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="63">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B182" t="s" s="64">
         <v>61</v>
@@ -11185,7 +11215,7 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="63">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B183" t="s" s="64">
         <v>61</v>
@@ -11218,7 +11248,7 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="63">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B184" t="s" s="64">
         <v>61</v>
@@ -11251,7 +11281,7 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="63">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B185" t="s" s="64">
         <v>61</v>
@@ -11284,7 +11314,7 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="63">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B186" t="s" s="64">
         <v>33</v>
@@ -11319,7 +11349,7 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="63">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B187" t="s" s="64">
         <v>61</v>
@@ -11352,7 +11382,7 @@
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="63">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B188" t="s" s="64">
         <v>61</v>
@@ -11385,7 +11415,7 @@
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="63">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B189" t="s" s="64">
         <v>61</v>
@@ -11418,7 +11448,7 @@
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" t="s" s="63">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B190" t="s" s="64">
         <v>61</v>
@@ -11451,7 +11481,7 @@
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="63">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B191" t="s" s="64">
         <v>61</v>
@@ -11467,7 +11497,7 @@
       <c r="G191" s="71"/>
       <c r="H191" s="68"/>
       <c r="I191" t="s" s="67">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J191" s="69">
         <v>210109001</v>
@@ -11486,7 +11516,7 @@
     </row>
     <row r="192" ht="20.05" customHeight="1">
       <c r="A192" t="s" s="63">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B192" t="s" s="64">
         <v>61</v>
@@ -11519,7 +11549,7 @@
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="63">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B193" t="s" s="64">
         <v>61</v>
@@ -11552,7 +11582,7 @@
     </row>
     <row r="194" ht="20.05" customHeight="1">
       <c r="A194" t="s" s="63">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B194" t="s" s="64">
         <v>61</v>
@@ -11585,7 +11615,7 @@
     </row>
     <row r="195" ht="20.05" customHeight="1">
       <c r="A195" t="s" s="63">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B195" t="s" s="64">
         <v>61</v>
@@ -11666,12 +11696,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="105" customWidth="1"/>
-    <col min="5" max="5" width="23.5781" style="105" customWidth="1"/>
-    <col min="6" max="6" width="22.0781" style="105" customWidth="1"/>
-    <col min="7" max="7" width="23.3906" style="105" customWidth="1"/>
-    <col min="8" max="8" width="21.0781" style="105" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="105" customWidth="1"/>
+    <col min="1" max="4" width="16.3516" style="106" customWidth="1"/>
+    <col min="5" max="5" width="23.5781" style="106" customWidth="1"/>
+    <col min="6" max="6" width="22.0781" style="106" customWidth="1"/>
+    <col min="7" max="7" width="23.3906" style="106" customWidth="1"/>
+    <col min="8" max="8" width="21.0781" style="106" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -11690,244 +11720,244 @@
       <c r="A2" t="s" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" t="s" s="29">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s" s="29">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s" s="29">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s" s="29">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G2" t="s" s="29">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H2" t="s" s="29">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="107">
+      <c r="A3" t="s" s="108">
         <v>70</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" t="s" s="109">
-        <v>313</v>
-      </c>
-      <c r="D3" t="s" s="109">
+      <c r="B3" s="109"/>
+      <c r="C3" t="s" s="110">
         <v>314</v>
       </c>
-      <c r="E3" t="s" s="109">
+      <c r="D3" t="s" s="110">
         <v>315</v>
       </c>
-      <c r="F3" t="s" s="110">
+      <c r="E3" t="s" s="110">
         <v>316</v>
       </c>
-      <c r="G3" s="111">
+      <c r="F3" t="s" s="111">
+        <v>317</v>
+      </c>
+      <c r="G3" s="112">
         <v>38</v>
       </c>
-      <c r="H3" s="112"/>
+      <c r="H3" s="113"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="113">
+      <c r="A4" t="s" s="114">
         <v>100</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D4" t="s" s="115">
-        <v>317</v>
-      </c>
-      <c r="E4" t="s" s="115">
+      <c r="B4" s="115"/>
+      <c r="C4" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s" s="116">
         <v>318</v>
       </c>
-      <c r="F4" t="s" s="115">
+      <c r="E4" t="s" s="116">
         <v>319</v>
       </c>
-      <c r="G4" s="116">
+      <c r="F4" t="s" s="116">
+        <v>320</v>
+      </c>
+      <c r="G4" s="117">
         <v>69</v>
       </c>
       <c r="H4" s="26"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="113">
+      <c r="A5" t="s" s="114">
         <v>102</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D5" t="s" s="115">
-        <v>320</v>
+      <c r="B5" s="115"/>
+      <c r="C5" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D5" t="s" s="116">
+        <v>321</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="116">
+      <c r="H5" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="117">
+      <c r="A6" t="s" s="118">
         <v>126</v>
       </c>
-      <c r="B6" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C6" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D6" t="s" s="115">
+      <c r="B6" t="s" s="119">
         <v>322</v>
       </c>
-      <c r="E6" t="s" s="115">
+      <c r="C6" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D6" t="s" s="116">
         <v>323</v>
+      </c>
+      <c r="E6" t="s" s="116">
+        <v>324</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="117">
+      <c r="A7" t="s" s="118">
         <v>128</v>
       </c>
-      <c r="B7" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C7" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D7" t="s" s="115">
-        <v>324</v>
-      </c>
-      <c r="E7" t="s" s="115">
+      <c r="B7" t="s" s="119">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D7" t="s" s="116">
         <v>325</v>
+      </c>
+      <c r="E7" t="s" s="116">
+        <v>326</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
     <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="117">
+      <c r="A8" t="s" s="118">
         <v>153</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D8" t="s" s="115">
-        <v>326</v>
-      </c>
-      <c r="E8" t="s" s="115">
+      <c r="B8" s="115"/>
+      <c r="C8" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s" s="116">
         <v>327</v>
       </c>
+      <c r="E8" t="s" s="116">
+        <v>328</v>
+      </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="116">
+      <c r="G8" s="117">
         <v>16</v>
       </c>
       <c r="H8" s="26"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="117">
+      <c r="A9" t="s" s="118">
         <v>160</v>
       </c>
-      <c r="B9" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C9" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D9" t="s" s="115">
-        <v>328</v>
-      </c>
-      <c r="E9" t="s" s="115">
+      <c r="B9" t="s" s="119">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D9" t="s" s="116">
         <v>329</v>
       </c>
+      <c r="E9" t="s" s="116">
+        <v>330</v>
+      </c>
       <c r="F9" s="26"/>
-      <c r="G9" t="s" s="115">
-        <v>330</v>
+      <c r="G9" t="s" s="116">
+        <v>331</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="117">
+      <c r="A10" t="s" s="118">
         <v>161</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D10" t="s" s="115">
-        <v>331</v>
-      </c>
-      <c r="E10" t="s" s="115">
+      <c r="B10" s="115"/>
+      <c r="C10" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D10" t="s" s="116">
         <v>332</v>
       </c>
+      <c r="E10" t="s" s="116">
+        <v>333</v>
+      </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="116">
+      <c r="G10" s="117">
         <v>12</v>
       </c>
       <c r="H10" s="26"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="117">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C11" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D11" t="s" s="115">
-        <v>333</v>
+      <c r="A11" t="s" s="118">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s" s="119">
+        <v>322</v>
+      </c>
+      <c r="C11" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s" s="116">
+        <v>334</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="116">
+      <c r="G11" s="117">
         <v>12</v>
       </c>
       <c r="H11" s="26"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="117">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C12" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D12" t="s" s="115">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s" s="115">
+      <c r="A12" t="s" s="118">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s" s="119">
+        <v>322</v>
+      </c>
+      <c r="C12" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s" s="116">
         <v>335</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>336</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="116">
+      <c r="H12" s="117">
         <v>5</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="117">
-        <v>178</v>
-      </c>
-      <c r="B13" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C13" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D13" t="s" s="115">
-        <v>336</v>
+      <c r="A13" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s" s="119">
+        <v>322</v>
+      </c>
+      <c r="C13" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D13" t="s" s="116">
+        <v>337</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -11935,17 +11965,17 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="117">
-        <v>179</v>
-      </c>
-      <c r="B14" t="s" s="118">
-        <v>321</v>
-      </c>
-      <c r="C14" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D14" t="s" s="115">
-        <v>337</v>
+      <c r="A14" t="s" s="118">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s" s="119">
+        <v>322</v>
+      </c>
+      <c r="C14" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D14" t="s" s="116">
+        <v>338</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -11953,17 +11983,17 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="117">
-        <v>186</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D15" t="s" s="115">
-        <v>338</v>
-      </c>
-      <c r="E15" s="116">
+      <c r="A15" t="s" s="118">
+        <v>187</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D15" t="s" s="116">
+        <v>339</v>
+      </c>
+      <c r="E15" s="117">
         <v>13</v>
       </c>
       <c r="F15" s="26"/>
@@ -11971,15 +12001,15 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="117">
-        <v>188</v>
-      </c>
-      <c r="B16" s="114"/>
-      <c r="C16" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D16" t="s" s="115">
-        <v>339</v>
+      <c r="A16" t="s" s="118">
+        <v>189</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D16" t="s" s="116">
+        <v>340</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -11987,37 +12017,37 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="117">
-        <v>190</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D17" t="s" s="115">
-        <v>340</v>
-      </c>
-      <c r="E17" t="s" s="115">
+      <c r="A17" t="s" s="118">
+        <v>191</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D17" t="s" s="116">
         <v>341</v>
       </c>
+      <c r="E17" t="s" s="116">
+        <v>342</v>
+      </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="116">
+      <c r="G17" s="117">
         <v>34</v>
       </c>
-      <c r="H17" t="s" s="115">
-        <v>342</v>
+      <c r="H17" t="s" s="116">
+        <v>343</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="117">
-        <v>212</v>
-      </c>
-      <c r="B18" s="114"/>
-      <c r="C18" t="s" s="115">
-        <v>313</v>
-      </c>
-      <c r="D18" t="s" s="115">
-        <v>343</v>
+      <c r="A18" t="s" s="118">
+        <v>213</v>
+      </c>
+      <c r="B18" s="115"/>
+      <c r="C18" t="s" s="116">
+        <v>314</v>
+      </c>
+      <c r="D18" t="s" s="116">
+        <v>344</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -12025,10 +12055,10 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="117">
+      <c r="A19" t="s" s="118">
         <v>157</v>
       </c>
-      <c r="B19" s="114"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -12037,10 +12067,10 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="117">
-        <v>194</v>
-      </c>
-      <c r="B20" s="114"/>
+      <c r="A20" t="s" s="118">
+        <v>195</v>
+      </c>
+      <c r="B20" s="115"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -12049,8 +12079,8 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="114"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -12083,9 +12113,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.1641" style="120" customWidth="1"/>
-    <col min="2" max="5" width="16.3516" style="120" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="120" customWidth="1"/>
+    <col min="1" max="1" width="26.1641" style="121" customWidth="1"/>
+    <col min="2" max="5" width="16.3516" style="121" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -12098,271 +12128,271 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" ht="16.25" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="124">
-        <v>344</v>
-      </c>
-      <c r="B4" s="125">
+      <c r="A4" t="s" s="125">
+        <v>345</v>
+      </c>
+      <c r="B4" s="126">
         <v>190913046</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="127">
         <v>37</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="128">
         <v>2</v>
       </c>
-      <c r="E4" s="126">
+      <c r="E4" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="124">
-        <v>345</v>
-      </c>
-      <c r="B5" s="125">
+      <c r="A5" t="s" s="125">
+        <v>346</v>
+      </c>
+      <c r="B5" s="126">
         <v>191004041</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="127">
         <v>27</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="128">
         <v>2</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="124">
-        <v>346</v>
-      </c>
-      <c r="B6" s="125">
+      <c r="A6" t="s" s="125">
+        <v>347</v>
+      </c>
+      <c r="B6" s="126">
         <v>191006041</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="127">
         <v>7</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="128">
         <v>2</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="124">
-        <v>347</v>
-      </c>
-      <c r="B7" s="125">
+      <c r="A7" t="s" s="125">
+        <v>348</v>
+      </c>
+      <c r="B7" s="126">
         <v>191125047</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="127">
         <v>20</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="128">
         <v>2</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="124">
-        <v>348</v>
-      </c>
-      <c r="B8" s="125">
+      <c r="A8" t="s" s="125">
+        <v>349</v>
+      </c>
+      <c r="B8" s="126">
         <v>191125047</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="127">
         <v>36</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="128">
         <v>2</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="127">
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="124">
-        <v>349</v>
-      </c>
-      <c r="B9" s="125">
+      <c r="A9" t="s" s="125">
+        <v>350</v>
+      </c>
+      <c r="B9" s="126">
         <v>191225014</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="127">
         <v>0</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="128">
         <v>2</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="127">
         <v>3</v>
       </c>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="128">
-        <v>350</v>
-      </c>
-      <c r="B10" s="125">
+      <c r="A10" t="s" s="129">
+        <v>351</v>
+      </c>
+      <c r="B10" s="126">
         <v>190809041</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="127">
         <v>23</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="128">
         <v>2</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="127">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="128">
-        <v>351</v>
-      </c>
-      <c r="B11" s="125">
+      <c r="A11" t="s" s="129">
+        <v>352</v>
+      </c>
+      <c r="B11" s="126">
         <v>190809041</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="127">
         <v>28</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="128">
         <v>2</v>
       </c>
-      <c r="E11" s="126">
+      <c r="E11" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="128">
-        <v>352</v>
-      </c>
-      <c r="B12" s="125">
+      <c r="A12" t="s" s="129">
+        <v>353</v>
+      </c>
+      <c r="B12" s="126">
         <v>190915041</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="127">
         <v>15</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="128">
         <v>2</v>
       </c>
-      <c r="E12" s="126">
+      <c r="E12" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="128">
-        <v>353</v>
-      </c>
-      <c r="B13" s="125">
+      <c r="A13" t="s" s="129">
+        <v>354</v>
+      </c>
+      <c r="B13" s="126">
         <v>191011041</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="127">
         <v>18</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="128">
         <v>2</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="127">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="128">
-        <v>354</v>
-      </c>
-      <c r="B14" s="125">
+      <c r="A14" t="s" s="129">
+        <v>355</v>
+      </c>
+      <c r="B14" s="126">
         <v>191124035</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="127">
         <v>30</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="128">
         <v>2</v>
       </c>
-      <c r="E14" s="126">
+      <c r="E14" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="128">
-        <v>355</v>
-      </c>
-      <c r="B15" s="125">
+      <c r="A15" t="s" s="129">
+        <v>356</v>
+      </c>
+      <c r="B15" s="126">
         <v>191222001</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="127">
         <v>19</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="128">
         <v>2</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="128">
-        <v>356</v>
-      </c>
-      <c r="B16" s="125">
+      <c r="A16" t="s" s="129">
+        <v>357</v>
+      </c>
+      <c r="B16" s="126">
         <v>191223021</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="127">
         <v>24</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="128">
         <v>2</v>
       </c>
-      <c r="E16" s="126">
+      <c r="E16" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="128">
-        <v>357</v>
-      </c>
-      <c r="B17" s="125">
+      <c r="A17" t="s" s="129">
+        <v>358</v>
+      </c>
+      <c r="B17" s="126">
         <v>191225014</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="127">
         <v>24</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="128">
         <v>2</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="127">
         <v>3</v>
       </c>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="128">
-        <v>358</v>
-      </c>
-      <c r="B18" s="125">
+      <c r="A18" t="s" s="129">
+        <v>359</v>
+      </c>
+      <c r="B18" s="126">
         <v>191225015</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="127">
         <v>26</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="128">
         <v>2</v>
       </c>
-      <c r="E18" s="126">
+      <c r="E18" s="127">
         <v>1</v>
       </c>
     </row>
@@ -12391,15 +12421,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="129" customWidth="1"/>
-    <col min="2" max="2" width="11.1172" style="129" customWidth="1"/>
-    <col min="3" max="3" width="16.7578" style="129" customWidth="1"/>
-    <col min="4" max="5" width="11.5781" style="129" customWidth="1"/>
-    <col min="6" max="6" width="12.5781" style="129" customWidth="1"/>
-    <col min="7" max="8" width="11.5781" style="129" customWidth="1"/>
-    <col min="9" max="9" width="28.3125" style="129" customWidth="1"/>
-    <col min="10" max="21" width="9.85156" style="129" customWidth="1"/>
-    <col min="22" max="16384" width="8.35156" style="129" customWidth="1"/>
+    <col min="1" max="1" width="11.3516" style="130" customWidth="1"/>
+    <col min="2" max="2" width="11.1172" style="130" customWidth="1"/>
+    <col min="3" max="3" width="16.7578" style="130" customWidth="1"/>
+    <col min="4" max="5" width="11.5781" style="130" customWidth="1"/>
+    <col min="6" max="6" width="12.5781" style="130" customWidth="1"/>
+    <col min="7" max="8" width="11.5781" style="130" customWidth="1"/>
+    <col min="9" max="9" width="28.3125" style="130" customWidth="1"/>
+    <col min="10" max="21" width="9.85156" style="130" customWidth="1"/>
+    <col min="22" max="16384" width="8.35156" style="130" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -12475,64 +12505,64 @@
       <c r="U2" s="34"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="130">
-        <v>359</v>
-      </c>
-      <c r="B3" t="s" s="131">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s" s="132">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s" s="132">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s" s="132">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s" s="132">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s" s="133">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s" s="134">
+      <c r="A3" t="s" s="131">
         <v>360</v>
       </c>
-      <c r="I3" t="s" s="134">
+      <c r="B3" t="s" s="132">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s" s="133">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="133">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s" s="133">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s" s="133">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s" s="134">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s" s="135">
         <v>361</v>
       </c>
-      <c r="J3" s="135">
+      <c r="I3" t="s" s="135">
+        <v>362</v>
+      </c>
+      <c r="J3" s="136">
         <v>200313068</v>
       </c>
-      <c r="K3" s="136">
+      <c r="K3" s="137">
         <v>200712041</v>
       </c>
-      <c r="L3" s="136">
+      <c r="L3" s="137">
         <v>200730041</v>
       </c>
-      <c r="M3" s="136">
+      <c r="M3" s="137">
         <v>200807041</v>
       </c>
-      <c r="N3" s="136">
+      <c r="N3" s="137">
         <v>210502041</v>
       </c>
-      <c r="O3" s="136">
+      <c r="O3" s="137">
         <v>210609086</v>
       </c>
-      <c r="P3" s="136">
+      <c r="P3" s="137">
         <v>210726041</v>
       </c>
-      <c r="Q3" s="136">
+      <c r="Q3" s="137">
         <v>210802041</v>
       </c>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="138"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -12541,7 +12571,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
-      <c r="J4" s="139"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -12711,7 +12741,7 @@
       <c r="G8" s="71"/>
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
-      <c r="J8" s="139"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
@@ -12922,7 +12952,7 @@
       <c r="G13" s="71"/>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
-      <c r="J13" s="139"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -13028,7 +13058,7 @@
       <c r="G17" s="71"/>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="139"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -14697,7 +14727,7 @@
       <c r="U78" s="25"/>
     </row>
     <row r="79" ht="21.35" customHeight="1">
-      <c r="A79" t="s" s="140">
+      <c r="A79" t="s" s="141">
         <v>152</v>
       </c>
       <c r="B79" s="24"/>
@@ -14708,10 +14738,10 @@
       <c r="G79" s="71"/>
       <c r="H79" s="68"/>
       <c r="I79" s="68"/>
-      <c r="J79" s="141">
+      <c r="J79" s="142">
         <v>191006041</v>
       </c>
-      <c r="K79" s="142">
+      <c r="K79" s="143">
         <v>210419042</v>
       </c>
       <c r="L79" s="25"/>
@@ -14871,7 +14901,7 @@
       <c r="U84" s="25"/>
     </row>
     <row r="85" ht="21.35" customHeight="1">
-      <c r="A85" t="s" s="143">
+      <c r="A85" t="s" s="144">
         <v>164</v>
       </c>
       <c r="B85" s="24"/>
@@ -14882,13 +14912,13 @@
       <c r="G85" s="71"/>
       <c r="H85" s="68"/>
       <c r="I85" s="68"/>
-      <c r="J85" s="141">
+      <c r="J85" s="142">
         <v>191004041</v>
       </c>
-      <c r="K85" s="142">
+      <c r="K85" s="143">
         <v>210927041</v>
       </c>
-      <c r="L85" s="142">
+      <c r="L85" s="143">
         <v>211226009</v>
       </c>
       <c r="M85" s="25"/>
@@ -14903,7 +14933,7 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="63">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="25"/>
@@ -14930,7 +14960,7 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="63">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="25"/>
@@ -14957,7 +14987,7 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="63">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25"/>
@@ -14984,7 +15014,7 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="63">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="25"/>
@@ -15011,7 +15041,7 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="63">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="25"/>
@@ -15038,7 +15068,7 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="63">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="25"/>
@@ -15065,7 +15095,7 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="63">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="25"/>
@@ -15092,7 +15122,7 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="63">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="25"/>
@@ -15119,7 +15149,7 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="63">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
@@ -15146,7 +15176,7 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="63">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="25"/>
@@ -15173,7 +15203,7 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="63">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="25"/>
@@ -15200,7 +15230,7 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="63">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="25"/>
@@ -15227,7 +15257,7 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="63">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="25"/>
@@ -15254,7 +15284,7 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="63">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="25"/>
@@ -15281,7 +15311,7 @@
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="63">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="25"/>
@@ -15308,7 +15338,7 @@
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="63">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="25"/>
@@ -15326,7 +15356,7 @@
       </c>
       <c r="L101" s="25"/>
       <c r="M101" t="s" s="65">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
@@ -15339,7 +15369,7 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="63">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="25"/>
@@ -15368,7 +15398,7 @@
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="63">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
@@ -15395,7 +15425,7 @@
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="63">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="25"/>
@@ -15422,7 +15452,7 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="63">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="25"/>
@@ -15451,7 +15481,7 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="63">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="25"/>
@@ -15478,7 +15508,7 @@
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="63">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="25"/>
@@ -15505,7 +15535,7 @@
     </row>
     <row r="108" ht="20.05" customHeight="1">
       <c r="A108" t="s" s="63">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="25"/>
@@ -15532,7 +15562,7 @@
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="63">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="25"/>
@@ -15559,7 +15589,7 @@
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" t="s" s="63">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="25"/>
@@ -15586,7 +15616,7 @@
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="63">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="25"/>
@@ -15613,7 +15643,7 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="63">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="25"/>
@@ -15640,7 +15670,7 @@
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="63">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="25"/>
@@ -15667,7 +15697,7 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="63">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="25"/>
@@ -15694,7 +15724,7 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="63">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="25"/>
@@ -15721,7 +15751,7 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="63">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="25"/>
@@ -15748,7 +15778,7 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="63">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="25"/>
@@ -15775,7 +15805,7 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="63">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -15802,7 +15832,7 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="63">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="25"/>
@@ -15829,7 +15859,7 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="63">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="25"/>
@@ -15856,7 +15886,7 @@
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" t="s" s="63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="25"/>
@@ -15883,7 +15913,7 @@
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="25"/>
@@ -15910,7 +15940,7 @@
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" t="s" s="63">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="25"/>
@@ -15937,7 +15967,7 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="63">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="25"/>
@@ -15964,7 +15994,7 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="63">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="25"/>
@@ -15991,7 +16021,7 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="63">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="25"/>
@@ -16018,7 +16048,7 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="63">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="25"/>
@@ -16045,7 +16075,7 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="63">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="25"/>
@@ -16072,7 +16102,7 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="63">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="25"/>
@@ -16099,7 +16129,7 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="63">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="25"/>
@@ -16126,7 +16156,7 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="63">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="25"/>
@@ -16153,7 +16183,7 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="63">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="25"/>
@@ -16180,7 +16210,7 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="63">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="25"/>
@@ -16207,7 +16237,7 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="63">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="25"/>
@@ -16234,7 +16264,7 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="63">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B135" s="24"/>
       <c r="C135" s="25"/>
@@ -16261,7 +16291,7 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="63">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="25"/>
@@ -16288,7 +16318,7 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="63">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="25"/>
@@ -16315,7 +16345,7 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="63">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="25"/>
@@ -16342,7 +16372,7 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="63">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="25"/>
@@ -16369,7 +16399,7 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="63">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B140" s="24"/>
       <c r="C140" s="25"/>
@@ -16396,7 +16426,7 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="63">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B141" s="24"/>
       <c r="C141" s="25"/>
@@ -16425,7 +16455,7 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="63">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B142" s="24"/>
       <c r="C142" s="25"/>
@@ -16454,7 +16484,7 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="63">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B143" s="24"/>
       <c r="C143" s="25"/>
@@ -16483,7 +16513,7 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="63">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B144" s="24"/>
       <c r="C144" s="25"/>
@@ -16510,7 +16540,7 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="63">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B145" s="24"/>
       <c r="C145" s="25"/>
@@ -16539,7 +16569,7 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="63">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B146" s="24"/>
       <c r="C146" s="25"/>
@@ -16566,7 +16596,7 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="63">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="25"/>
@@ -16593,7 +16623,7 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="63">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B148" s="24"/>
       <c r="C148" s="25"/>
@@ -16622,7 +16652,7 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="63">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B149" s="24"/>
       <c r="C149" s="25"/>
@@ -16651,7 +16681,7 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="63">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B150" s="24"/>
       <c r="C150" s="25"/>
@@ -16680,7 +16710,7 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="63">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B151" s="24"/>
       <c r="C151" s="25"/>
@@ -16707,7 +16737,7 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="63">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B152" s="24"/>
       <c r="C152" s="25"/>
@@ -16736,7 +16766,7 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="63">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B153" s="24"/>
       <c r="C153" s="25"/>
@@ -16765,7 +16795,7 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="63">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B154" s="24"/>
       <c r="C154" s="25"/>
@@ -16792,7 +16822,7 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="63">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B155" s="24"/>
       <c r="C155" s="25"/>
@@ -16818,8 +16848,8 @@
       <c r="U155" s="25"/>
     </row>
     <row r="156" ht="21.35" customHeight="1">
-      <c r="A156" t="s" s="143">
-        <v>263</v>
+      <c r="A156" t="s" s="144">
+        <v>264</v>
       </c>
       <c r="B156" s="24"/>
       <c r="C156" s="25"/>
@@ -16829,12 +16859,12 @@
       <c r="G156" s="71"/>
       <c r="H156" s="68"/>
       <c r="I156" t="s" s="67">
-        <v>264</v>
-      </c>
-      <c r="J156" s="141">
+        <v>265</v>
+      </c>
+      <c r="J156" s="142">
         <v>191125047</v>
       </c>
-      <c r="K156" s="142">
+      <c r="K156" s="143">
         <v>210711041</v>
       </c>
       <c r="L156" s="25"/>
@@ -16850,7 +16880,7 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="63">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B157" s="24"/>
       <c r="C157" s="25"/>
@@ -16877,7 +16907,7 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="63">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B158" s="24"/>
       <c r="C158" s="25"/>
@@ -16904,7 +16934,7 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="63">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B159" s="24"/>
       <c r="C159" s="25"/>
@@ -16931,7 +16961,7 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="63">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B160" s="24"/>
       <c r="C160" s="25"/>
@@ -16958,7 +16988,7 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="63">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B161" s="24"/>
       <c r="C161" s="25"/>
@@ -16985,7 +17015,7 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="63">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B162" s="24"/>
       <c r="C162" s="25"/>
@@ -17012,7 +17042,7 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="63">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B163" s="24"/>
       <c r="C163" s="25"/>
@@ -17039,7 +17069,7 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="63">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B164" s="24"/>
       <c r="C164" s="25"/>
@@ -17066,7 +17096,7 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="63">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B165" s="24"/>
       <c r="C165" s="25"/>
@@ -17093,7 +17123,7 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="63">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B166" s="24"/>
       <c r="C166" s="25"/>
@@ -17120,7 +17150,7 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="63">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B167" s="24"/>
       <c r="C167" s="25"/>
@@ -17147,7 +17177,7 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="63">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B168" s="24"/>
       <c r="C168" s="25"/>
@@ -17174,7 +17204,7 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="63">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B169" s="24"/>
       <c r="C169" s="25"/>
@@ -17201,7 +17231,7 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="63">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B170" s="24"/>
       <c r="C170" s="25"/>
@@ -17228,7 +17258,7 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="63">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B171" s="24"/>
       <c r="C171" s="25"/>
@@ -17255,7 +17285,7 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="63">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B172" s="24"/>
       <c r="C172" s="25"/>
@@ -17282,7 +17312,7 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="63">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B173" s="24"/>
       <c r="C173" s="25"/>
@@ -17309,7 +17339,7 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="63">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B174" s="24"/>
       <c r="C174" s="25"/>
@@ -17336,7 +17366,7 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="63">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B175" s="24"/>
       <c r="C175" s="25"/>
@@ -17363,7 +17393,7 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="63">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B176" s="24"/>
       <c r="C176" s="25"/>
@@ -17390,7 +17420,7 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="63">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B177" s="24"/>
       <c r="C177" s="25"/>
@@ -17417,7 +17447,7 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="63">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B178" s="24"/>
       <c r="C178" s="25"/>
@@ -17444,7 +17474,7 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="63">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B179" s="24"/>
       <c r="C179" s="25"/>
@@ -17471,7 +17501,7 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="63">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B180" s="24"/>
       <c r="C180" s="25"/>
@@ -17498,7 +17528,7 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="63">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B181" s="24"/>
       <c r="C181" s="25"/>
@@ -17525,7 +17555,7 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="63">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B182" s="24"/>
       <c r="C182" s="25"/>
@@ -17552,7 +17582,7 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="63">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B183" s="24"/>
       <c r="C183" s="25"/>
@@ -17579,7 +17609,7 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="63">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B184" s="24"/>
       <c r="C184" s="25"/>
@@ -17606,7 +17636,7 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="63">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B185" s="24"/>
       <c r="C185" s="25"/>
@@ -17633,7 +17663,7 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="63">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B186" s="24"/>
       <c r="C186" s="25"/>
@@ -17660,7 +17690,7 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="63">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B187" s="24"/>
       <c r="C187" s="25"/>
@@ -17687,7 +17717,7 @@
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="63">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B188" s="24"/>
       <c r="C188" s="25"/>
@@ -17716,7 +17746,7 @@
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="63">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B189" s="24"/>
       <c r="C189" s="25"/>
@@ -17743,7 +17773,7 @@
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" t="s" s="63">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B190" s="24"/>
       <c r="C190" s="25"/>
@@ -17770,7 +17800,7 @@
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="63">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B191" s="24"/>
       <c r="C191" s="25"/>
@@ -17797,7 +17827,7 @@
     </row>
     <row r="192" ht="20.05" customHeight="1">
       <c r="A192" t="s" s="63">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B192" s="24"/>
       <c r="C192" s="25"/>
@@ -17824,7 +17854,7 @@
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="63">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B193" s="24"/>
       <c r="C193" s="25"/>
@@ -17851,7 +17881,7 @@
     </row>
     <row r="194" ht="20.05" customHeight="1">
       <c r="A194" t="s" s="63">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B194" s="24"/>
       <c r="C194" s="25"/>
@@ -17878,7 +17908,7 @@
     </row>
     <row r="195" ht="20.05" customHeight="1">
       <c r="A195" t="s" s="63">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B195" s="24"/>
       <c r="C195" s="25"/>
@@ -17905,7 +17935,7 @@
     </row>
     <row r="196" ht="20.05" customHeight="1">
       <c r="A196" t="s" s="63">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B196" s="24"/>
       <c r="C196" s="25"/>
@@ -17932,7 +17962,7 @@
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" t="s" s="63">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B197" s="24"/>
       <c r="C197" s="25"/>

--- a/field_status.xlsx
+++ b/field_status.xlsx
@@ -665,81 +665,81 @@
     <t>S2039+2904</t>
   </si>
   <si>
+    <t>Lots of galactic cirrus/extinction</t>
+  </si>
+  <si>
+    <t>S2043+3130</t>
+  </si>
+  <si>
+    <t>S2052+2904</t>
+  </si>
+  <si>
+    <t>S2053+3622</t>
+  </si>
+  <si>
+    <t>S2056+3130</t>
+  </si>
+  <si>
+    <t>S2101+3356</t>
+  </si>
+  <si>
+    <t>S2104+2904</t>
+  </si>
+  <si>
+    <t>S2107+3622</t>
+  </si>
+  <si>
+    <t>Y, most bad</t>
+  </si>
+  <si>
+    <t>S2107+3848</t>
+  </si>
+  <si>
+    <t>S2109+3130</t>
+  </si>
+  <si>
+    <t>S2115+3356</t>
+  </si>
+  <si>
+    <t>S2121+3622</t>
+  </si>
+  <si>
+    <t>S2121+3848</t>
+  </si>
+  <si>
+    <t>S2122+3130</t>
+  </si>
+  <si>
+    <t>S2123+4114</t>
+  </si>
+  <si>
+    <t>S2128+3356</t>
+  </si>
+  <si>
+    <t>S2134+3622</t>
+  </si>
+  <si>
+    <t>S2135+3130</t>
+  </si>
+  <si>
+    <t>S2135+3848</t>
+  </si>
+  <si>
+    <t>S2141+3356</t>
+  </si>
+  <si>
+    <t>S2142+2904</t>
+  </si>
+  <si>
+    <t>S2148+3130</t>
+  </si>
+  <si>
+    <t>S2155+2904</t>
+  </si>
+  <si>
     <t>working</t>
   </si>
   <si>
-    <t>S2043+3130</t>
-  </si>
-  <si>
-    <t>S2052+2904</t>
-  </si>
-  <si>
-    <t>S2053+3622</t>
-  </si>
-  <si>
-    <t>S2056+3130</t>
-  </si>
-  <si>
-    <t>S2101+3356</t>
-  </si>
-  <si>
-    <t>S2104+2904</t>
-  </si>
-  <si>
-    <t>S2107+3622</t>
-  </si>
-  <si>
-    <t>S2107+3848</t>
-  </si>
-  <si>
-    <t>S2109+3130</t>
-  </si>
-  <si>
-    <t>S2115+3356</t>
-  </si>
-  <si>
-    <t>S2121+3622</t>
-  </si>
-  <si>
-    <t>S2121+3848</t>
-  </si>
-  <si>
-    <t>S2122+3130</t>
-  </si>
-  <si>
-    <t>S2123+4114</t>
-  </si>
-  <si>
-    <t>S2128+3356</t>
-  </si>
-  <si>
-    <t>copy beams from here...</t>
-  </si>
-  <si>
-    <t>S2134+3622</t>
-  </si>
-  <si>
-    <t>S2135+3130</t>
-  </si>
-  <si>
-    <t>S2135+3848</t>
-  </si>
-  <si>
-    <t>S2141+3356</t>
-  </si>
-  <si>
-    <t>S2142+2904</t>
-  </si>
-  <si>
-    <t>S2148+3130</t>
-  </si>
-  <si>
-    <t>S2155+2904</t>
-  </si>
-  <si>
-    <t>ready, downloading beams here down</t>
-  </si>
-  <si>
     <t>S2201+4340</t>
   </si>
   <si>
@@ -749,9 +749,6 @@
     <t>S2204+3848</t>
   </si>
   <si>
-    <t>ready, removed</t>
-  </si>
-  <si>
     <t>S2207+2904</t>
   </si>
   <si>
@@ -842,12 +839,12 @@
     <t>S2300+3848</t>
   </si>
   <si>
-    <t>ready, beams downloaded to here, inclusive</t>
-  </si>
-  <si>
     <t>S2301+4340</t>
   </si>
   <si>
+    <t>downloading beams from here down</t>
+  </si>
+  <si>
     <t>S2305+4114</t>
   </si>
   <si>
@@ -912,6 +909,9 @@
   </si>
   <si>
     <t>S2345+4606</t>
+  </si>
+  <si>
+    <t>copying beams to hrere (inclusive)</t>
   </si>
   <si>
     <t>S2346+5324</t>
@@ -8911,13 +8911,23 @@
         <v>33</v>
       </c>
       <c r="D116" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H116" t="s" s="67">
+        <v>35</v>
+      </c>
+      <c r="I116" t="s" s="67">
         <v>216</v>
       </c>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="68"/>
       <c r="J116" s="69">
         <v>210114041</v>
       </c>
@@ -8944,13 +8954,23 @@
         <v>33</v>
       </c>
       <c r="D117" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E117" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G117" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H117" t="s" s="67">
+        <v>35</v>
+      </c>
+      <c r="I117" t="s" s="67">
+        <v>203</v>
+      </c>
       <c r="J117" s="69">
         <v>210112041</v>
       </c>
@@ -8977,12 +8997,20 @@
         <v>33</v>
       </c>
       <c r="D118" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E118" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H118" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I118" s="68"/>
       <c r="J118" s="69">
         <v>210108041</v>
@@ -9010,12 +9038,20 @@
         <v>33</v>
       </c>
       <c r="D119" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E119" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H119" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I119" s="68"/>
       <c r="J119" s="69">
         <v>210221037</v>
@@ -9043,12 +9079,20 @@
         <v>33</v>
       </c>
       <c r="D120" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E120" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H120" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I120" s="68"/>
       <c r="J120" s="69">
         <v>210110041</v>
@@ -9076,12 +9120,20 @@
         <v>33</v>
       </c>
       <c r="D121" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E121" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F121" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H121" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I121" s="68"/>
       <c r="J121" s="69">
         <v>201223041</v>
@@ -9109,12 +9161,20 @@
         <v>33</v>
       </c>
       <c r="D122" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E122" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F122" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H122" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I122" s="68"/>
       <c r="J122" s="69">
         <v>201117064</v>
@@ -9142,12 +9202,20 @@
         <v>33</v>
       </c>
       <c r="D123" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E123" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F123" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s" s="66">
+        <v>224</v>
+      </c>
+      <c r="H123" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I123" s="68"/>
       <c r="J123" s="69">
         <v>201120041</v>
@@ -9166,7 +9234,7 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="63">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s" s="64">
         <v>61</v>
@@ -9175,12 +9243,20 @@
         <v>33</v>
       </c>
       <c r="D124" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E124" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H124" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I124" s="68"/>
       <c r="J124" s="69">
         <v>210223036</v>
@@ -9199,7 +9275,7 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="63">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s" s="64">
         <v>61</v>
@@ -9208,12 +9284,20 @@
         <v>33</v>
       </c>
       <c r="D125" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E125" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H125" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I125" s="68"/>
       <c r="J125" s="69">
         <v>201122041</v>
@@ -9232,7 +9316,7 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="63">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B126" t="s" s="64">
         <v>61</v>
@@ -9241,12 +9325,20 @@
         <v>33</v>
       </c>
       <c r="D126" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="E126" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F126" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H126" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I126" s="68"/>
       <c r="J126" s="69">
         <v>201225067</v>
@@ -9265,7 +9357,7 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="63">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B127" t="s" s="64">
         <v>61</v>
@@ -9277,11 +9369,17 @@
         <v>33</v>
       </c>
       <c r="E127" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F127" s="25"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F127" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G127" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H127" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I127" s="68"/>
       <c r="J127" s="69">
         <v>200731041</v>
@@ -9300,7 +9398,7 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="63">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s" s="64">
         <v>61</v>
@@ -9312,11 +9410,17 @@
         <v>33</v>
       </c>
       <c r="E128" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F128" s="25"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F128" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G128" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H128" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I128" s="68"/>
       <c r="J128" s="69">
         <v>200802041</v>
@@ -9335,7 +9439,7 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="63">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B129" t="s" s="64">
         <v>61</v>
@@ -9347,11 +9451,17 @@
         <v>33</v>
       </c>
       <c r="E129" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F129" s="25"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F129" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G129" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H129" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I129" s="68"/>
       <c r="J129" s="69">
         <v>201124041</v>
@@ -9370,7 +9480,7 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="63">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s" s="64">
         <v>61</v>
@@ -9382,11 +9492,17 @@
         <v>33</v>
       </c>
       <c r="E130" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F130" s="25"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F130" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s" s="66">
+        <v>211</v>
+      </c>
+      <c r="H130" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I130" s="68"/>
       <c r="J130" s="69">
         <v>200804041</v>
@@ -9405,7 +9521,7 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="63">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s" s="64">
         <v>61</v>
@@ -9414,7 +9530,7 @@
         <v>33</v>
       </c>
       <c r="D131" t="s" s="65">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
@@ -9424,9 +9540,7 @@
       <c r="J131" s="69">
         <v>200806041</v>
       </c>
-      <c r="K131" t="s" s="65">
-        <v>232</v>
-      </c>
+      <c r="K131" s="25"/>
       <c r="L131" s="25"/>
       <c r="M131" s="25"/>
       <c r="N131" s="25"/>
@@ -9452,11 +9566,17 @@
         <v>33</v>
       </c>
       <c r="E132" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F132" s="25"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F132" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H132" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I132" s="68"/>
       <c r="J132" s="69">
         <v>200701129</v>
@@ -9487,11 +9607,17 @@
         <v>33</v>
       </c>
       <c r="E133" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F133" s="25"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F133" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G133" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H133" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I133" s="68"/>
       <c r="J133" s="69">
         <v>200911041</v>
@@ -9522,11 +9648,17 @@
         <v>33</v>
       </c>
       <c r="E134" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F134" s="25"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F134" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G134" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H134" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I134" s="68"/>
       <c r="J134" s="69">
         <v>200703042</v>
@@ -9557,11 +9689,17 @@
         <v>33</v>
       </c>
       <c r="E135" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F135" s="25"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F135" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I135" s="68"/>
       <c r="J135" s="69">
         <v>200707042</v>
@@ -9592,11 +9730,17 @@
         <v>33</v>
       </c>
       <c r="E136" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F136" s="25"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F136" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G136" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H136" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I136" s="68"/>
       <c r="J136" s="69">
         <v>200709042</v>
@@ -9627,11 +9771,17 @@
         <v>33</v>
       </c>
       <c r="E137" t="s" s="65">
-        <v>216</v>
-      </c>
-      <c r="F137" s="25"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="68"/>
+        <v>33</v>
+      </c>
+      <c r="F137" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="H137" t="s" s="67">
+        <v>35</v>
+      </c>
       <c r="I137" s="68"/>
       <c r="J137" s="69">
         <v>200711042</v>
@@ -9692,7 +9842,7 @@
         <v>33</v>
       </c>
       <c r="D139" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
@@ -9727,7 +9877,7 @@
         <v>33</v>
       </c>
       <c r="D140" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
@@ -9762,10 +9912,14 @@
         <v>33</v>
       </c>
       <c r="D141" t="s" s="65">
-        <v>244</v>
-      </c>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E141" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s" s="65">
+        <v>59</v>
+      </c>
       <c r="G141" s="71"/>
       <c r="H141" s="68"/>
       <c r="I141" s="68"/>
@@ -9788,7 +9942,7 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="63">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B142" t="s" s="64">
         <v>61</v>
@@ -9797,14 +9951,14 @@
         <v>33</v>
       </c>
       <c r="D142" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
       <c r="G142" s="71"/>
       <c r="H142" s="68"/>
       <c r="I142" t="s" s="67">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J142" s="69">
         <v>200913041</v>
@@ -9823,19 +9977,19 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="63">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B143" t="s" s="64">
         <v>61</v>
       </c>
       <c r="C143" t="s" s="65">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D143" t="s" s="65">
         <v>61</v>
       </c>
       <c r="E143" t="s" s="65">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F143" t="s" s="65">
         <v>33</v>
@@ -9864,22 +10018,22 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="63">
+        <v>249</v>
+      </c>
+      <c r="B144" t="s" s="64">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="D144" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="E144" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F144" t="s" s="65">
         <v>250</v>
-      </c>
-      <c r="B144" t="s" s="64">
-        <v>33</v>
-      </c>
-      <c r="C144" t="s" s="65">
-        <v>33</v>
-      </c>
-      <c r="D144" t="s" s="65">
-        <v>33</v>
-      </c>
-      <c r="E144" t="s" s="65">
-        <v>33</v>
-      </c>
-      <c r="F144" t="s" s="65">
-        <v>251</v>
       </c>
       <c r="G144" s="71"/>
       <c r="H144" s="68"/>
@@ -9903,7 +10057,7 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="63">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B145" t="s" s="64">
         <v>61</v>
@@ -9912,14 +10066,14 @@
         <v>33</v>
       </c>
       <c r="D145" t="s" s="65">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
       <c r="G145" s="71"/>
       <c r="H145" s="68"/>
       <c r="I145" t="s" s="67">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J145" s="69">
         <v>200315026</v>
@@ -9958,7 +10112,7 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="63">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s" s="64">
         <v>33</v>
@@ -9967,7 +10121,7 @@
         <v>33</v>
       </c>
       <c r="D146" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
@@ -9993,7 +10147,7 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="63">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s" s="64">
         <v>33</v>
@@ -10034,7 +10188,7 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="63">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s" s="64">
         <v>33</v>
@@ -10043,7 +10197,7 @@
         <v>33</v>
       </c>
       <c r="D148" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
@@ -10069,7 +10223,7 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="63">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s" s="64">
         <v>61</v>
@@ -10078,7 +10232,7 @@
         <v>33</v>
       </c>
       <c r="D149" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
@@ -10102,7 +10256,7 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="63">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" t="s" s="64">
         <v>33</v>
@@ -10111,7 +10265,7 @@
         <v>33</v>
       </c>
       <c r="D150" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
@@ -10137,7 +10291,7 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="63">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s" s="64">
         <v>33</v>
@@ -10146,16 +10300,16 @@
         <v>33</v>
       </c>
       <c r="D151" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
       <c r="G151" s="71"/>
       <c r="H151" t="s" s="67">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I151" t="s" s="67">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J151" s="69">
         <v>191121046</v>
@@ -10176,7 +10330,7 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="63">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B152" t="s" s="64">
         <v>61</v>
@@ -10185,7 +10339,7 @@
         <v>33</v>
       </c>
       <c r="D152" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
@@ -10209,7 +10363,7 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="63">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s" s="64">
         <v>61</v>
@@ -10218,7 +10372,7 @@
         <v>33</v>
       </c>
       <c r="D153" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
@@ -10244,7 +10398,7 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="105">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s" s="64">
         <v>33</v>
@@ -10268,7 +10422,7 @@
         <v>35</v>
       </c>
       <c r="I154" t="s" s="67">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J154" s="72">
         <v>191125047</v>
@@ -10289,7 +10443,7 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="63">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B155" t="s" s="64">
         <v>61</v>
@@ -10298,7 +10452,7 @@
         <v>33</v>
       </c>
       <c r="D155" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
@@ -10322,7 +10476,7 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="63">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B156" t="s" s="64">
         <v>61</v>
@@ -10331,7 +10485,7 @@
         <v>33</v>
       </c>
       <c r="D156" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
@@ -10355,7 +10509,7 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="63">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B157" t="s" s="64">
         <v>61</v>
@@ -10364,7 +10518,7 @@
         <v>33</v>
       </c>
       <c r="D157" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
@@ -10388,7 +10542,7 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="63">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B158" t="s" s="64">
         <v>61</v>
@@ -10397,7 +10551,7 @@
         <v>33</v>
       </c>
       <c r="D158" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
@@ -10421,7 +10575,7 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="63">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B159" t="s" s="64">
         <v>61</v>
@@ -10430,7 +10584,7 @@
         <v>33</v>
       </c>
       <c r="D159" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
@@ -10454,7 +10608,7 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="63">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B160" t="s" s="64">
         <v>33</v>
@@ -10463,9 +10617,11 @@
         <v>33</v>
       </c>
       <c r="D160" t="s" s="65">
-        <v>59</v>
-      </c>
-      <c r="E160" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E160" t="s" s="65">
+        <v>240</v>
+      </c>
       <c r="F160" s="25"/>
       <c r="G160" s="71"/>
       <c r="H160" s="68"/>
@@ -10487,7 +10643,7 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="63">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s" s="64">
         <v>61</v>
@@ -10496,7 +10652,7 @@
         <v>33</v>
       </c>
       <c r="D161" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
@@ -10520,7 +10676,7 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="63">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s" s="64">
         <v>61</v>
@@ -10529,7 +10685,7 @@
         <v>33</v>
       </c>
       <c r="D162" t="s" s="65">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
@@ -10553,7 +10709,7 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="63">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B163" t="s" s="64">
         <v>33</v>
@@ -10562,10 +10718,14 @@
         <v>33</v>
       </c>
       <c r="D163" t="s" s="65">
-        <v>275</v>
-      </c>
-      <c r="E163" s="25"/>
-      <c r="F163" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E163" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s" s="65">
+        <v>59</v>
+      </c>
       <c r="G163" s="71"/>
       <c r="H163" s="68"/>
       <c r="I163" s="68"/>
@@ -10586,7 +10746,7 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="63">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B164" t="s" s="64">
         <v>61</v>
@@ -10597,7 +10757,9 @@
       <c r="D164" t="s" s="65">
         <v>59</v>
       </c>
-      <c r="E164" s="25"/>
+      <c r="E164" t="s" s="65">
+        <v>275</v>
+      </c>
       <c r="F164" s="25"/>
       <c r="G164" s="71"/>
       <c r="H164" s="68"/>
@@ -10619,7 +10781,7 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="63">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s" s="64">
         <v>61</v>
@@ -10652,7 +10814,7 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="63">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B166" t="s" s="64">
         <v>61</v>
@@ -10685,7 +10847,7 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="63">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B167" t="s" s="64">
         <v>61</v>
@@ -10718,7 +10880,7 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="63">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B168" t="s" s="64">
         <v>61</v>
@@ -10751,7 +10913,7 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="63">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B169" t="s" s="64">
         <v>61</v>
@@ -10784,7 +10946,7 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="63">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B170" t="s" s="64">
         <v>33</v>
@@ -10817,7 +10979,7 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="63">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B171" t="s" s="64">
         <v>33</v>
@@ -10850,7 +11012,7 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="63">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B172" t="s" s="64">
         <v>61</v>
@@ -10883,7 +11045,7 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="63">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" t="s" s="64">
         <v>61</v>
@@ -10916,7 +11078,7 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="63">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s" s="64">
         <v>61</v>
@@ -10949,7 +11111,7 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="63">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s" s="64">
         <v>61</v>
@@ -10982,7 +11144,7 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="63">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B176" t="s" s="64">
         <v>61</v>
@@ -11015,7 +11177,7 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="63">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B177" t="s" s="64">
         <v>61</v>
@@ -11048,7 +11210,7 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="63">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B178" t="s" s="64">
         <v>61</v>
@@ -11081,7 +11243,7 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="63">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B179" t="s" s="64">
         <v>61</v>
@@ -11114,7 +11276,7 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="63">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B180" t="s" s="64">
         <v>61</v>
@@ -11147,7 +11309,7 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="63">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B181" t="s" s="64">
         <v>61</v>
@@ -11163,7 +11325,7 @@
       <c r="G181" s="71"/>
       <c r="H181" s="68"/>
       <c r="I181" t="s" s="67">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J181" s="69">
         <v>201126041</v>
@@ -11182,7 +11344,7 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="63">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B182" t="s" s="64">
         <v>61</v>
@@ -11215,7 +11377,7 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="63">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B183" t="s" s="64">
         <v>61</v>
@@ -11248,7 +11410,7 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="63">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B184" t="s" s="64">
         <v>61</v>
@@ -11281,7 +11443,7 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="63">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B185" t="s" s="64">
         <v>61</v>
@@ -11292,7 +11454,9 @@
       <c r="D185" t="s" s="65">
         <v>59</v>
       </c>
-      <c r="E185" s="25"/>
+      <c r="E185" t="s" s="65">
+        <v>298</v>
+      </c>
       <c r="F185" s="25"/>
       <c r="G185" s="71"/>
       <c r="H185" s="68"/>
@@ -11497,7 +11661,7 @@
       <c r="G191" s="71"/>
       <c r="H191" s="68"/>
       <c r="I191" t="s" s="67">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J191" s="69">
         <v>210109001</v>
@@ -16021,7 +16185,7 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="63">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="25"/>
@@ -16048,7 +16212,7 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="63">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="25"/>
@@ -16075,7 +16239,7 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="63">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="25"/>
@@ -16102,7 +16266,7 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="63">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="25"/>
@@ -16129,7 +16293,7 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="63">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="25"/>
@@ -16156,7 +16320,7 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="63">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="25"/>
@@ -16183,7 +16347,7 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="63">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="25"/>
@@ -16210,7 +16374,7 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="63">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="25"/>
@@ -16513,7 +16677,7 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="63">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B144" s="24"/>
       <c r="C144" s="25"/>
@@ -16540,7 +16704,7 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="63">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" s="24"/>
       <c r="C145" s="25"/>
@@ -16569,7 +16733,7 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="63">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B146" s="24"/>
       <c r="C146" s="25"/>
@@ -16596,7 +16760,7 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="63">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="25"/>
@@ -16623,7 +16787,7 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="63">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B148" s="24"/>
       <c r="C148" s="25"/>
@@ -16652,7 +16816,7 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="63">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B149" s="24"/>
       <c r="C149" s="25"/>
@@ -16681,7 +16845,7 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="63">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B150" s="24"/>
       <c r="C150" s="25"/>
@@ -16710,7 +16874,7 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="63">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B151" s="24"/>
       <c r="C151" s="25"/>
@@ -16737,7 +16901,7 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="63">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B152" s="24"/>
       <c r="C152" s="25"/>
@@ -16766,7 +16930,7 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="63">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B153" s="24"/>
       <c r="C153" s="25"/>
@@ -16795,7 +16959,7 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="63">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B154" s="24"/>
       <c r="C154" s="25"/>
@@ -16822,7 +16986,7 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="63">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B155" s="24"/>
       <c r="C155" s="25"/>
@@ -16849,7 +17013,7 @@
     </row>
     <row r="156" ht="21.35" customHeight="1">
       <c r="A156" t="s" s="144">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B156" s="24"/>
       <c r="C156" s="25"/>
@@ -16859,7 +17023,7 @@
       <c r="G156" s="71"/>
       <c r="H156" s="68"/>
       <c r="I156" t="s" s="67">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J156" s="142">
         <v>191125047</v>
@@ -16880,7 +17044,7 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="63">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B157" s="24"/>
       <c r="C157" s="25"/>
@@ -16907,7 +17071,7 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="63">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B158" s="24"/>
       <c r="C158" s="25"/>
@@ -16934,7 +17098,7 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="63">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B159" s="24"/>
       <c r="C159" s="25"/>
@@ -16961,7 +17125,7 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="63">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B160" s="24"/>
       <c r="C160" s="25"/>
@@ -16988,7 +17152,7 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="63">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B161" s="24"/>
       <c r="C161" s="25"/>
@@ -17015,7 +17179,7 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="63">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B162" s="24"/>
       <c r="C162" s="25"/>
@@ -17042,7 +17206,7 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="63">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B163" s="24"/>
       <c r="C163" s="25"/>
@@ -17069,7 +17233,7 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="63">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B164" s="24"/>
       <c r="C164" s="25"/>
@@ -17096,7 +17260,7 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="63">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B165" s="24"/>
       <c r="C165" s="25"/>
@@ -17123,7 +17287,7 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="63">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B166" s="24"/>
       <c r="C166" s="25"/>
@@ -17150,7 +17314,7 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="63">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B167" s="24"/>
       <c r="C167" s="25"/>
@@ -17177,7 +17341,7 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="63">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B168" s="24"/>
       <c r="C168" s="25"/>
@@ -17204,7 +17368,7 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="63">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B169" s="24"/>
       <c r="C169" s="25"/>
@@ -17231,7 +17395,7 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="63">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B170" s="24"/>
       <c r="C170" s="25"/>
@@ -17258,7 +17422,7 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="63">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B171" s="24"/>
       <c r="C171" s="25"/>
@@ -17285,7 +17449,7 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="63">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B172" s="24"/>
       <c r="C172" s="25"/>
@@ -17312,7 +17476,7 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="63">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B173" s="24"/>
       <c r="C173" s="25"/>
@@ -17339,7 +17503,7 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="63">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B174" s="24"/>
       <c r="C174" s="25"/>
@@ -17366,7 +17530,7 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="63">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" s="24"/>
       <c r="C175" s="25"/>
@@ -17393,7 +17557,7 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="63">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B176" s="24"/>
       <c r="C176" s="25"/>
@@ -17420,7 +17584,7 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="63">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B177" s="24"/>
       <c r="C177" s="25"/>
@@ -17447,7 +17611,7 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="63">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B178" s="24"/>
       <c r="C178" s="25"/>
@@ -17474,7 +17638,7 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="63">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B179" s="24"/>
       <c r="C179" s="25"/>
@@ -17501,7 +17665,7 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="63">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B180" s="24"/>
       <c r="C180" s="25"/>
@@ -17528,7 +17692,7 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="63">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B181" s="24"/>
       <c r="C181" s="25"/>
@@ -17555,7 +17719,7 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="63">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B182" s="24"/>
       <c r="C182" s="25"/>
@@ -17582,7 +17746,7 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="63">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B183" s="24"/>
       <c r="C183" s="25"/>
@@ -17609,7 +17773,7 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="63">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B184" s="24"/>
       <c r="C184" s="25"/>
@@ -17636,7 +17800,7 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="63">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B185" s="24"/>
       <c r="C185" s="25"/>
@@ -17663,7 +17827,7 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="63">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B186" s="24"/>
       <c r="C186" s="25"/>
@@ -17690,7 +17854,7 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="63">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B187" s="24"/>
       <c r="C187" s="25"/>
